--- a/document/各项参数表.xlsx
+++ b/document/各项参数表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="角色属性" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,150 @@
   </si>
   <si>
     <t>潜力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘柠真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末那态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻击区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始防御区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始生命区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始速度区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始暴击区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始抵抗区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始命中区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始闪避区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击成长区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御成长区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命成长区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜力区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +247,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A7EC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D7E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,9 +307,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,6 +336,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7D7E7E"/>
+      <color rgb="FF3A7EC4"/>
+      <color rgb="FFBB66FF"/>
+      <color rgb="FF64BD67"/>
+      <color rgb="FF66DDEE"/>
+      <color rgb="FFBB6637"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,76 +644,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="19" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1">
+        <v>190</v>
+      </c>
+      <c r="J9" s="1">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>80</v>
+      </c>
+      <c r="O9" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>32</v>
+      </c>
+      <c r="R9" s="1">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1">
+        <v>80</v>
+      </c>
+      <c r="T9" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/各项参数表.xlsx
+++ b/document/各项参数表.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色属性" sheetId="1" r:id="rId1"/>
+    <sheet name="阵容推荐" sheetId="2" r:id="rId2"/>
+    <sheet name="装备" sheetId="3" r:id="rId3"/>
+    <sheet name="秘笈" sheetId="4" r:id="rId4"/>
+    <sheet name="魂器" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +229,219 @@
   </si>
   <si>
     <t>80-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖王队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲喜和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧潮戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙眼雀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜流冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿凡提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭枭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐鲁番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘柠真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸠丹媚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗生队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠穆朗玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼延重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐无邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容玉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡老糟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴采子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公子樱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓跋峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无崖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁香愁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马子陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮舟真人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵摩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天刑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鹂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐无邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两百万年前，吉祥天天刑宫的座长老</t>
+  </si>
+  <si>
+    <t>七百万年前，清虚天第一名门碧落赋的掌教</t>
+  </si>
+  <si>
+    <t>无忧子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九百万年前，罗生天第一名门大光明境的掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉若天</t>
+  </si>
+  <si>
+    <t>海沁颜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +478,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -307,11 +537,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,6 +557,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,29 +884,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="19" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
@@ -712,107 +950,107 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="Q3" s="7" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="Q4" s="7" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="7" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -926,4 +1164,378 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="40.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+      <c r="B60" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="9"/>
+      <c r="B62" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A59:A66"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/各项参数表.xlsx
+++ b/document/各项参数表.xlsx
@@ -11,14 +11,16 @@
     <sheet name="阵容推荐" sheetId="2" r:id="rId2"/>
     <sheet name="装备" sheetId="3" r:id="rId3"/>
     <sheet name="秘笈" sheetId="4" r:id="rId4"/>
-    <sheet name="魂器" sheetId="5" r:id="rId5"/>
+    <sheet name="道具" sheetId="6" r:id="rId5"/>
+    <sheet name="魂器" sheetId="5" r:id="rId6"/>
+    <sheet name="关卡" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="427">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +906,765 @@
   </si>
   <si>
     <t>80-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历天行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗生天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末那(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿赖耶态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白发老头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猥琐侏儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莲花，半躺在花蕊里，漆黑的长发悠悠垂落，眼睛明亮，雪白道袍，山峦般起伏的曲线，蜷着腿，像是睡着了的仙子，膝盖上横放着一柄斑斓长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺骨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蝶头生双角，相貌凶厉，高大魁梧的身躯密布鳞甲。瞪起眼睛时，就像两团燃烧的火焰</t>
+  </si>
+  <si>
+    <t>皮肤是橄榄色的，淡淡的花纹，碧色的长发，编结成一根根细长的辫子，额头斜贴着一朵妖艳的花黄，两只硕大的猫眼耳环，垂到了肩膀，绛红色抹胸，肚脐眼，还镶嵌着一颗红宝石，鳞片短裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金黄色的短发，上身的金甲，变成了丝丝缕缕的金线，线与线的连接点，嵌着鹅黄色的珍珠，是长筒金靴，直没膝盖，靴面上刻满闪亮的花纹，黄金盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑毛妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獠牙妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犄角妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五大三粗，脸上生满黑毛，眼睛绿油油的</t>
+  </si>
+  <si>
+    <t>面目狰狞，獠牙翻出猩唇</t>
+  </si>
+  <si>
+    <t>相貌清秀，衣服考究，头上长着一只弯弯的犄角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独臂大汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身穿银丝绸袍，蜥蜴妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白白胖胖的中年人，眼小如豆</t>
+  </si>
+  <si>
+    <t>高瘦汉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颀长汉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石九郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浑身黝黑的矮子，泥蚯蚓，头顶生出一颗黄色的肉瘤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴着竹笠，遮住了脸，只露出一双眼睛闪动着冷漠的光芒，后背升出一根粗壮的石柱，石柱上雕刻着一只三头六臂的怪物，像活的一样，蠢蠢欲动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土八郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木七郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水六郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金四郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜃三郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤二郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云大郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水睛斑鲨兽</t>
+  </si>
+  <si>
+    <t>肌肤几乎透明的英俊少年，长发像丝丝琉璃，在阳光下晶莹剔透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青脸小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红脸小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄脸小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白脸小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体形像充了气的皮球鼓起，额头外凸，冒出了一个灰白色的怪东西。扁扁的，头圆尾尖，宽阔的大嘴生有两根小钩，向外翘出，眼睛绿豆般大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啰嗦兔妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花脸妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蛤蟆</t>
+  </si>
+  <si>
+    <t>癞蛤蟆，背上鼓起一颗颗瘌痢，圆滚滚的，比我的脑袋还大。粗壮的四肢，头上竖着黑色的独角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨绿色海兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆乎乎的墨绿色脑袋，脑袋比整只海蛤蟆还要大，脑袋油光光的，镶满了一圈乳白色的光球，忽闪忽闪的，骇人的巨大身躯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大螃蟹</t>
+  </si>
+  <si>
+    <t>龙鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犀兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长着独角的怪兽，像是野牛，皮粗肉厚，发出震耳欲聋的吼声，皮肉比石头还硬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犀狍</t>
+  </si>
+  <si>
+    <t>狼鸠</t>
+  </si>
+  <si>
+    <t>身躯更像是狼，偏偏鹰头钩嘴，长满羽毛，两扇巨大的翅膀</t>
+  </si>
+  <si>
+    <t>古里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古怪</t>
+  </si>
+  <si>
+    <t>花生壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉经甲御术</t>
+  </si>
+  <si>
+    <t>碧落秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏六字真诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星罗棋布秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯阳炎秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璇玑秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补天秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控鹤驱龙秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步斗秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神通秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶恋花秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫府秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高仙羽玄秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙盘甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大光明镜甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖里乾坤甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六丁甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵器甲御术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏妖经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐遁妖典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳采补妖术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎化长生妖经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜瞳秘道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五识妖经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹起风御风术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筋斗云羽道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云光石流飞丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽鼎云英</t>
+  </si>
+  <si>
+    <t>霜雪转</t>
+  </si>
+  <si>
+    <t>源心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜花</t>
+  </si>
+  <si>
+    <t>解热毒</t>
+  </si>
+  <si>
+    <t>绿色珠丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄龟赤睛兽每隔千年才会拉一次屎</t>
+  </si>
+  <si>
+    <t>红色珠丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得浑身坚如金刚</t>
+  </si>
+  <si>
+    <t>洗髓伐毛，改造体质，珠以灵动为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍大汉</t>
+  </si>
+  <si>
+    <t>狮吼秘道门的弟子</t>
+  </si>
+  <si>
+    <t>金刚秘道派的弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿着厚棉袄，手拿牛皮大口袋，打扮得不伦不类的大汉，颠三倒四甲御派弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉袄大汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头妖怪</t>
+  </si>
+  <si>
+    <t>驴耳妖怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳翠羽</t>
+  </si>
+  <si>
+    <t>小红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威风客栈杂役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威风客栈杂役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖耳朵的娇艳蚕妖，曲线玲珑，身上缠绕着一根根晶莹的细丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掀开掩住头脸的风帽，双眉一挑，峻峭凌厉，犹如两柄利剑冲天飞起</t>
+  </si>
+  <si>
+    <t>红衣大汉</t>
+  </si>
+  <si>
+    <t>白光光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>须发皆白，穿着华贵的黄丝袍，腰围玉带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳荷东</t>
+  </si>
+  <si>
+    <t>高胖的老太太，狮吼秘道门的掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦陀</t>
+  </si>
+  <si>
+    <t>何平</t>
+  </si>
+  <si>
+    <t>何赛花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彪形大汉，金刚秘道派的掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反穿羊皮袄，手拿破蒲扇，光着一双脏脚丫，颠三倒四甲御派的掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火蝗翅</t>
+  </si>
+  <si>
+    <t>赤练草</t>
+  </si>
+  <si>
+    <t>白骨虫卵</t>
+  </si>
+  <si>
+    <t>额角贴花黄，乌溜溜的眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泉天涨潮被潮水冲卷，送出黄泉天的侥幸不灭的游魂野鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞焰虎</t>
+  </si>
+  <si>
+    <t>红光闪耀的猛虎，背生双翅，展开足足有十几丈宽，翅膀像两团火一样，流动着熊熊烈焰，昔日魔刹天一个妖怪的坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿蛊</t>
+  </si>
+  <si>
+    <t>满脸麻子的侏儒，来自红尘天的南疆万虫山庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠三倒四甲御术</t>
+  </si>
+  <si>
+    <t>白云从脸上扩散，覆盖住他的全身，长发漆黑，披散在黑色的长袍上，双手捧着一只黑色的包袱，包袱口紧紧系着一根黑色的丝带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草人</t>
+  </si>
+  <si>
+    <t>一尺来高，有鼻子有眼，行动也算灵巧</t>
+  </si>
+  <si>
+    <t>夜枭</t>
+  </si>
+  <si>
+    <t>带着狂风扑来，翅膀掀翻草人，双爪猛地抓起心脏，向空中窜去</t>
+  </si>
+  <si>
+    <t>满脸菜色的大汉，手长腿长，骨架很大，却瘦得只剩薄薄一层皮，黄澄澄的一双眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌麻</t>
+  </si>
+  <si>
+    <t>是魔刹天的乌麻，能解毒虫咬噬</t>
+  </si>
+  <si>
+    <t>枣核人</t>
+  </si>
+  <si>
+    <t>丹木种子</t>
+  </si>
+  <si>
+    <t>一粒丹木种子结出的果实足可让一百个人一年吃饱</t>
+  </si>
+  <si>
+    <t>冰蚁浆</t>
+  </si>
+  <si>
+    <t>半寒半热，服用后会让人产生幻觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫乙斗气</t>
+  </si>
+  <si>
+    <t>步斗派弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咫尺天涯角弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱三姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满身珠光宝气，长着一对大招风耳的肥胖女妖</t>
+  </si>
+  <si>
+    <t>肌肉发达的可怕巨人，抱胸而立，虎视眈眈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳宗元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大千城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽人行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请跟我来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海市蜃楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鲸之旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶往大千城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大千城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘香盛会</t>
+  </si>
+  <si>
+    <t>橘子洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆大欢喜楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童子崖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刹那的绚烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心有千千结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔刹天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和我的前世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山蛙</t>
+  </si>
+  <si>
+    <t>青色螃蟹</t>
+  </si>
+  <si>
+    <t>魇虎</t>
+  </si>
+  <si>
+    <t>虎伥</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>敖广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧眼水云兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛精</t>
+  </si>
+  <si>
+    <t>怀抱琵琶，洒然缓行，曼声而歌，紫色的长发明丽幽美，眉目如画，丰神如仙，眼睛是碧蓝色的，如同清澈的海水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷猛</t>
+  </si>
+  <si>
+    <t>世(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末那(态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1716,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,6 +1753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1020,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,6 +1828,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,30 +2166,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="6"/>
-    <col min="19" max="21" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="6"/>
+    <col min="19" max="21" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="197.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1448,8 +2235,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8">
@@ -1484,9 +2271,10 @@
       <c r="V2" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1519,9 +2307,10 @@
       <c r="V3" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -1554,9 +2343,10 @@
       <c r="V4" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1589,8 +2379,9 @@
       <c r="V5" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="9"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>207</v>
       </c>
@@ -1628,7 +2419,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>208</v>
       </c>
@@ -1648,7 +2439,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1703,8 +2494,11 @@
       <c r="V12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X12" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1760,8 +2554,11 @@
       <c r="V13" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X13" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>114</v>
       </c>
@@ -1789,12 +2586,15 @@
       <c r="K14" s="6">
         <v>60</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="16">
         <f t="shared" ref="L14:L77" si="0">H14+I14+J14</f>
         <v>515</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X14" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>115</v>
       </c>
@@ -1822,15 +2622,18 @@
       <c r="K15" s="6">
         <v>84</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="16">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
       <c r="N15" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>116</v>
       </c>
@@ -1858,12 +2661,12 @@
       <c r="K16" s="13">
         <v>85</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>139</v>
       </c>
@@ -1891,12 +2694,15 @@
       <c r="K17" s="6">
         <v>82</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="16">
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X17" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
@@ -1924,12 +2730,12 @@
       <c r="K18" s="6">
         <v>85</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="16">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>118</v>
       </c>
@@ -1957,7 +2763,7 @@
       <c r="K19" s="13">
         <v>95</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="16">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -1968,7 +2774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>119</v>
       </c>
@@ -1996,12 +2802,12 @@
       <c r="K20" s="13">
         <v>87</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="16">
         <f t="shared" si="0"/>
         <v>575</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>120</v>
       </c>
@@ -2029,12 +2835,12 @@
       <c r="K21" s="13">
         <v>65</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="16">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>122</v>
       </c>
@@ -2050,12 +2856,24 @@
       <c r="E22" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="L22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <v>188</v>
+      </c>
+      <c r="I22" s="6">
+        <v>132</v>
+      </c>
+      <c r="J22" s="6">
+        <v>270</v>
+      </c>
+      <c r="K22" s="6">
+        <v>86</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>123</v>
       </c>
@@ -2071,12 +2889,24 @@
       <c r="E23" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>140</v>
+      </c>
+      <c r="I23" s="6">
+        <v>139</v>
+      </c>
+      <c r="J23" s="6">
+        <v>280</v>
+      </c>
+      <c r="K23" s="6">
+        <v>80</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>124</v>
       </c>
@@ -2092,12 +2922,24 @@
       <c r="E24" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="6">
+        <v>169</v>
+      </c>
+      <c r="I24" s="6">
+        <v>123</v>
+      </c>
+      <c r="J24" s="6">
+        <v>265</v>
+      </c>
+      <c r="K24" s="6">
+        <v>82</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>125</v>
       </c>
@@ -2113,12 +2955,24 @@
       <c r="E25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <v>158</v>
+      </c>
+      <c r="I25" s="6">
+        <v>120</v>
+      </c>
+      <c r="J25" s="6">
+        <v>268</v>
+      </c>
+      <c r="K25" s="6">
+        <v>79</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>126</v>
       </c>
@@ -2134,12 +2988,27 @@
       <c r="E26" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="6">
+        <v>169</v>
+      </c>
+      <c r="I26" s="6">
+        <v>116</v>
+      </c>
+      <c r="J26" s="6">
+        <v>256</v>
+      </c>
+      <c r="K26" s="6">
+        <v>73</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="0"/>
+        <v>541</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>127</v>
       </c>
@@ -2155,53 +3024,53 @@
       <c r="E27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="H27" s="6">
+        <v>148</v>
+      </c>
+      <c r="I27" s="6">
+        <v>139</v>
+      </c>
+      <c r="J27" s="6">
+        <v>274</v>
+      </c>
+      <c r="K27" s="6">
+        <v>83</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="0"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="D28" s="13">
-        <v>3</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="13">
-        <v>195</v>
-      </c>
-      <c r="I28" s="13">
-        <v>145</v>
-      </c>
-      <c r="J28" s="13">
-        <v>290</v>
-      </c>
-      <c r="K28" s="13">
-        <v>88</v>
-      </c>
-      <c r="L28" s="13">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -2210,25 +3079,28 @@
         <v>216</v>
       </c>
       <c r="H29" s="13">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I29" s="13">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J29" s="13">
-        <v>280</v>
-      </c>
-      <c r="L29" s="13">
-        <f t="shared" si="0"/>
-        <v>608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="K29" s="13">
+        <v>88</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>18</v>
@@ -2239,35 +3111,65 @@
       <c r="E30" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="H30" s="13">
+        <v>198</v>
+      </c>
+      <c r="I30" s="13">
         <v>130</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="J30" s="13">
+        <v>280</v>
+      </c>
+      <c r="K30" s="13">
+        <v>92</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="13">
+        <v>188</v>
+      </c>
+      <c r="I31" s="13">
+        <v>135</v>
+      </c>
+      <c r="J31" s="13">
+        <v>279</v>
+      </c>
+      <c r="K31" s="13">
+        <v>80</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -2275,17 +3177,32 @@
       <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E32" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="6">
+        <v>177</v>
+      </c>
+      <c r="I32" s="6">
+        <v>120</v>
+      </c>
+      <c r="J32" s="6">
+        <v>269</v>
+      </c>
+      <c r="K32" s="6">
+        <v>85</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="0"/>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
@@ -2293,17 +3210,32 @@
       <c r="D33" s="6">
         <v>3</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="6">
+        <v>179</v>
+      </c>
+      <c r="I33" s="6">
+        <v>115</v>
+      </c>
+      <c r="J33" s="6">
+        <v>248</v>
+      </c>
+      <c r="K33" s="6">
+        <v>73</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="0"/>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
@@ -2311,17 +3243,32 @@
       <c r="D34" s="6">
         <v>3</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E34" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="6">
+        <v>130</v>
+      </c>
+      <c r="I34" s="6">
+        <v>145</v>
+      </c>
+      <c r="J34" s="6">
+        <v>278</v>
+      </c>
+      <c r="K34" s="6">
+        <v>74</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="0"/>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
@@ -2329,14 +3276,29 @@
       <c r="D35" s="6">
         <v>3</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="6">
+        <v>144</v>
+      </c>
+      <c r="I35" s="6">
+        <v>113</v>
+      </c>
+      <c r="J35" s="6">
+        <v>246</v>
+      </c>
+      <c r="K35" s="6">
+        <v>69</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="0"/>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>179</v>
@@ -2347,17 +3309,32 @@
       <c r="D36" s="6">
         <v>3</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="6">
+        <v>140</v>
+      </c>
+      <c r="I36" s="6">
+        <v>95</v>
+      </c>
+      <c r="J36" s="6">
+        <v>262</v>
+      </c>
+      <c r="K36" s="6">
+        <v>71</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="0"/>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>18</v>
@@ -2365,17 +3342,32 @@
       <c r="D37" s="6">
         <v>3</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="6">
+        <v>149</v>
+      </c>
+      <c r="I37" s="6">
+        <v>115</v>
+      </c>
+      <c r="J37" s="6">
+        <v>246</v>
+      </c>
+      <c r="K37" s="6">
+        <v>73</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="0"/>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>18</v>
@@ -2383,71 +3375,119 @@
       <c r="D38" s="6">
         <v>3</v>
       </c>
-      <c r="L38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="6">
+        <v>156</v>
+      </c>
+      <c r="I38" s="6">
+        <v>110</v>
+      </c>
+      <c r="J38" s="6">
+        <v>252</v>
+      </c>
+      <c r="K38" s="6">
+        <v>79</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="0"/>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
       </c>
-      <c r="L39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="E39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="6">
+        <v>135</v>
+      </c>
+      <c r="I39" s="6">
+        <v>108</v>
+      </c>
+      <c r="J39" s="6">
+        <v>248</v>
+      </c>
+      <c r="K39" s="6">
+        <v>74</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="16">
+        <v>2</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="16">
+        <v>120</v>
+      </c>
+      <c r="I40" s="16">
+        <v>80</v>
+      </c>
+      <c r="J40" s="16">
+        <v>190</v>
+      </c>
+      <c r="K40" s="16">
+        <v>59</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="18">
         <v>3</v>
       </c>
-      <c r="L40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="6">
-        <v>3</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="E41" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>70</v>
+      <c r="A42" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>165</v>
@@ -2455,17 +3495,32 @@
       <c r="D42" s="6">
         <v>3</v>
       </c>
-      <c r="L42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="6">
+        <v>189</v>
+      </c>
+      <c r="I42" s="6">
+        <v>133</v>
+      </c>
+      <c r="J42" s="6">
+        <v>276</v>
+      </c>
+      <c r="K42" s="6">
+        <v>89</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" si="0"/>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>165</v>
@@ -2473,14 +3528,29 @@
       <c r="D43" s="6">
         <v>3</v>
       </c>
-      <c r="L43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="6">
+        <v>177</v>
+      </c>
+      <c r="I43" s="6">
+        <v>142</v>
+      </c>
+      <c r="J43" s="6">
+        <v>284</v>
+      </c>
+      <c r="K43" s="6">
+        <v>83</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="0"/>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>180</v>
@@ -2491,14 +3561,29 @@
       <c r="D44" s="6">
         <v>3</v>
       </c>
-      <c r="L44" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="6">
+        <v>171</v>
+      </c>
+      <c r="I44" s="6">
+        <v>109</v>
+      </c>
+      <c r="J44" s="6">
+        <v>263</v>
+      </c>
+      <c r="K44" s="6">
+        <v>75</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="0"/>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>180</v>
@@ -2509,17 +3594,20 @@
       <c r="D45" s="6">
         <v>3</v>
       </c>
-      <c r="L45" s="6">
+      <c r="E45" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>165</v>
@@ -2527,17 +3615,20 @@
       <c r="D46" s="6">
         <v>3</v>
       </c>
-      <c r="L46" s="6">
+      <c r="E46" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>165</v>
@@ -2545,17 +3636,32 @@
       <c r="D47" s="6">
         <v>3</v>
       </c>
-      <c r="L47" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E47" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="6">
+        <v>125</v>
+      </c>
+      <c r="I47" s="6">
+        <v>139</v>
+      </c>
+      <c r="J47" s="6">
+        <v>271</v>
+      </c>
+      <c r="K47" s="6">
+        <v>62</v>
+      </c>
+      <c r="L47" s="16">
+        <f t="shared" si="0"/>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>165</v>
@@ -2563,17 +3669,20 @@
       <c r="D48" s="6">
         <v>3</v>
       </c>
-      <c r="L48" s="6">
+      <c r="E48" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>165</v>
@@ -2581,71 +3690,83 @@
       <c r="D49" s="6">
         <v>3</v>
       </c>
-      <c r="L49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="13">
+      <c r="E49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L49" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="6">
         <v>3</v>
       </c>
-      <c r="L50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="E50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="6">
         <v>3</v>
       </c>
-      <c r="L51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="E51" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L51" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="6">
         <v>3</v>
       </c>
-      <c r="L52" s="13">
+      <c r="E52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>193</v>
@@ -2653,89 +3774,140 @@
       <c r="D53" s="13">
         <v>3</v>
       </c>
-      <c r="L53" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="E53" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="13">
         <v>3</v>
       </c>
-      <c r="L54" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E54" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="13">
+        <v>172</v>
+      </c>
+      <c r="I54" s="13">
+        <v>144</v>
+      </c>
+      <c r="J54" s="13">
+        <v>288</v>
+      </c>
+      <c r="K54" s="13">
+        <v>79</v>
+      </c>
+      <c r="L54" s="16">
+        <f t="shared" si="0"/>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" s="13">
         <v>3</v>
       </c>
-      <c r="L55" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E55" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="13">
+        <v>192</v>
+      </c>
+      <c r="I55" s="13">
+        <v>132</v>
+      </c>
+      <c r="J55" s="13">
+        <v>279</v>
+      </c>
+      <c r="K55" s="13">
+        <v>97</v>
+      </c>
+      <c r="L55" s="16">
+        <f t="shared" si="0"/>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" s="13">
         <v>3</v>
       </c>
-      <c r="L56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="13">
+      <c r="E56" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="13">
+        <v>195</v>
+      </c>
+      <c r="I56" s="13">
+        <v>140</v>
+      </c>
+      <c r="J56" s="13">
+        <v>295</v>
+      </c>
+      <c r="K56" s="13">
+        <v>89</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="6">
         <v>3</v>
       </c>
-      <c r="L57" s="13">
+      <c r="E57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>194</v>
@@ -2743,17 +3915,20 @@
       <c r="D58" s="13">
         <v>3</v>
       </c>
-      <c r="L58" s="13">
+      <c r="E58" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>194</v>
@@ -2761,68 +3936,80 @@
       <c r="D59" s="13">
         <v>3</v>
       </c>
-      <c r="L59" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="E59" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="L59" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="13">
         <v>3</v>
       </c>
-      <c r="L60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="E60" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="L60" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="13">
         <v>3</v>
       </c>
-      <c r="L61" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="E61" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L61" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="13">
         <v>3</v>
       </c>
-      <c r="L62" s="6">
+      <c r="E62" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>192</v>
@@ -2833,194 +4020,986 @@
       <c r="D63" s="6">
         <v>3</v>
       </c>
-      <c r="L63" s="6">
+      <c r="E63" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L63" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L64" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L65" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L66" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L67" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L68" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L69" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L70" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L71" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L72" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L73" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L74" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L75" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L76" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L77" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L78" s="6">
-        <f t="shared" ref="L78:L94" si="1">H78+I78+J78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L79" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L80" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="6">
-        <f t="shared" si="1"/>
+      <c r="A64" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="6">
+        <v>3</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="6">
+        <v>3</v>
+      </c>
+      <c r="L65" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="6">
+        <v>3</v>
+      </c>
+      <c r="L66" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L67" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L68" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L69" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L70" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L71" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L73" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L74" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L75" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L76" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="16">
+        <f t="shared" ref="L78:L141" si="1">H78+I78+J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L83" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L84" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L85" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L86" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L89" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L90" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L91" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="L92" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L93" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L94" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L95" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L96" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L97" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X97" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L98" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L99" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X99" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L100" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X100" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L101" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L102" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L103" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L104" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L105" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L106" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L107" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L110" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L111" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="L112" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L113" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L114" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L115" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L116" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L117" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="L118" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L119" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L120" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L121" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L122" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="L123" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X123" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L124" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L125" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X125" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L126" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="L127" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L128" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L129" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L130" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L131" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X131" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L132" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L133" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X133" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L134" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L135" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X135" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L136" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X136" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L137" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X137" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L138" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X138" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="L139" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X139" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L140" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L141" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X141" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L142" s="16">
+        <f t="shared" ref="L142:L165" si="2">H142+I142+J142</f>
+        <v>0</v>
+      </c>
+      <c r="X142" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L143" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X143" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L144" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L145" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L146" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X146" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L147" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X147" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L148" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L149" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L150" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L151" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X151" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="L152" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="L153" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L154" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X154" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L155" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L156" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A157" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="L157" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A158" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="L158" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A159" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="L159" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="L160" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="L161" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="L162" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="L163" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="L164" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="L165" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3038,7 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:B79"/>
     </sheetView>
   </sheetViews>
@@ -3051,7 +5030,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3059,55 +5038,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3115,40 +5094,40 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -3165,7 +5144,7 @@
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3173,67 +5152,67 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3244,73 +5223,73 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3321,46 +5300,46 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3368,49 +5347,49 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="1" t="s">
         <v>111</v>
       </c>
@@ -3445,6 +5424,287 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3456,14 +5716,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/各项参数表.xlsx
+++ b/document/各项参数表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设定" sheetId="9" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,14 +1790,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2124,24 +2124,24 @@
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" customWidth="1"/>
+    <col min="21" max="22" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>26</v>
@@ -2212,8 +2212,8 @@
       </c>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:27">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6">
@@ -2287,8 +2287,8 @@
       </c>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:27">
+      <c r="A3" s="28"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2360,8 +2360,8 @@
       </c>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:27">
+      <c r="A4" s="28"/>
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -2433,8 +2433,8 @@
       </c>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:27">
+      <c r="A5" s="28"/>
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2535,7 +2535,7 @@
       <c r="Z6" s="25"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2564,7 +2564,7 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2593,7 +2593,7 @@
       <c r="Z8" s="25"/>
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2622,7 +2622,7 @@
       <c r="Z9" s="25"/>
       <c r="AA9" s="16"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2651,7 +2651,7 @@
       <c r="Z10" s="25"/>
       <c r="AA10" s="16"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2680,7 +2680,7 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="16"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2709,7 +2709,7 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="16"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2738,7 +2738,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="16"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2767,7 +2767,7 @@
       <c r="Z14" s="25"/>
       <c r="AA14" s="16"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2796,7 +2796,7 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="16"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="15" t="s">
         <v>126</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="15" t="s">
         <v>127</v>
       </c>
@@ -2908,115 +2908,115 @@
       <selection activeCell="B71" sqref="B71:B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="40.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29"/>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
+      <c r="A20" s="29"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
@@ -3024,82 +3024,82 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="29"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:3">
+      <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29"/>
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="29"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="29"/>
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:3" ht="14.25">
+      <c r="A43" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3109,74 +3109,74 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+    <row r="44" spans="1:3">
+      <c r="A44" s="29"/>
       <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
+    <row r="45" spans="1:3">
+      <c r="A45" s="29"/>
       <c r="B45" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+    <row r="46" spans="1:3">
+      <c r="A46" s="29"/>
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+    <row r="47" spans="1:3">
+      <c r="A47" s="29"/>
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+    <row r="48" spans="1:3">
+      <c r="A48" s="29"/>
       <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+    <row r="49" spans="1:3">
+      <c r="A49" s="29"/>
       <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+    <row r="50" spans="1:3">
+      <c r="A50" s="29"/>
       <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+    <row r="51" spans="1:3">
+      <c r="A51" s="29"/>
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+    <row r="52" spans="1:3">
+      <c r="A52" s="29"/>
       <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+    <row r="53" spans="1:3">
+      <c r="A53" s="29"/>
       <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:3">
+      <c r="A54" s="29"/>
       <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+    <row r="59" spans="1:3" ht="14.25">
+      <c r="A59" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3186,97 +3186,97 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+    <row r="60" spans="1:3">
+      <c r="A60" s="29"/>
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+    <row r="61" spans="1:3">
+      <c r="A61" s="29"/>
       <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+    <row r="62" spans="1:3">
+      <c r="A62" s="29"/>
       <c r="B62" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+    <row r="63" spans="1:3">
+      <c r="A63" s="29"/>
       <c r="B63" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+    <row r="64" spans="1:3">
+      <c r="A64" s="29"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="29"/>
       <c r="B65" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+    <row r="66" spans="1:2">
+      <c r="A66" s="29"/>
       <c r="B66" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
+    <row r="72" spans="1:2">
+      <c r="A72" s="29"/>
       <c r="B72" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
+    <row r="73" spans="1:2">
+      <c r="A73" s="29"/>
       <c r="B73" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+    <row r="74" spans="1:2">
+      <c r="A74" s="29"/>
       <c r="B74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
+    <row r="75" spans="1:2">
+      <c r="A75" s="29"/>
       <c r="B75" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
+    <row r="76" spans="1:2">
+      <c r="A76" s="29"/>
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
+    <row r="77" spans="1:2">
+      <c r="A77" s="29"/>
       <c r="B77" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+    <row r="78" spans="1:2">
+      <c r="A78" s="29"/>
       <c r="B78" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+    <row r="79" spans="1:2">
+      <c r="A79" s="29"/>
       <c r="B79" s="1" t="s">
         <v>98</v>
       </c>
@@ -3300,34 +3300,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="202.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="202.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>100</v>
       </c>
       <c r="P2" s="11">
-        <f>L2+M2+N2</f>
+        <f t="shared" ref="P2:P33" si="0">L2+M2+N2</f>
         <v>750</v>
       </c>
       <c r="Q2" s="11"/>
@@ -3488,19 +3488,19 @@
         <v>40</v>
       </c>
       <c r="AA2" s="11">
-        <f>W2+X2+Y2+Z2</f>
+        <f t="shared" ref="AA2:AA33" si="1">W2+X2+Y2+Z2</f>
         <v>105</v>
       </c>
       <c r="AB2" s="11">
         <v>100</v>
       </c>
       <c r="AC2" s="11">
-        <f>P2+(AA2*AB2)</f>
+        <f t="shared" ref="AC2:AC33" si="2">P2+(AA2*AB2)</f>
         <v>11250</v>
       </c>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="11" t="s">
         <v>65</v>
       </c>
@@ -3536,17 +3536,17 @@
         <v>246</v>
       </c>
       <c r="M3" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N3" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O3" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P3" s="11">
-        <f>L3+M3+N3</f>
-        <v>730</v>
+        <f t="shared" si="0"/>
+        <v>736</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11">
@@ -3575,19 +3575,19 @@
         <v>39</v>
       </c>
       <c r="AA3" s="11">
-        <f>W3+X3+Y3+Z3</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AB3" s="11">
         <v>100</v>
       </c>
       <c r="AC3" s="11">
-        <f>P3+(AA3*AB3)</f>
-        <v>10530</v>
+        <f t="shared" si="2"/>
+        <v>10536</v>
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="12" t="s">
         <v>79</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>89</v>
       </c>
       <c r="P4" s="11">
-        <f>L4+M4+N4</f>
+        <f t="shared" si="0"/>
         <v>722</v>
       </c>
       <c r="Q4" s="11"/>
@@ -3662,19 +3662,19 @@
         <v>39</v>
       </c>
       <c r="AA4" s="11">
-        <f>W4+X4+Y4+Z4</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AB4" s="11">
         <v>100</v>
       </c>
       <c r="AC4" s="11">
-        <f>P4+(AA4*AB4)</f>
+        <f t="shared" si="2"/>
         <v>10722</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>92</v>
       </c>
       <c r="P5" s="11">
-        <f>L5+M5+N5</f>
+        <f t="shared" si="0"/>
         <v>716</v>
       </c>
       <c r="Q5" s="11"/>
@@ -3749,21 +3749,21 @@
         <v>39</v>
       </c>
       <c r="AA5" s="11">
-        <f>W5+X5+Y5+Z5</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AB5" s="11">
         <v>100</v>
       </c>
       <c r="AC5" s="11">
-        <f>P5+(AA5*AB5)</f>
+        <f t="shared" si="2"/>
         <v>10516</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="12" t="s">
         <v>90</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>95</v>
       </c>
       <c r="P6" s="11">
-        <f>L6+M6+N6</f>
+        <f t="shared" si="0"/>
         <v>707</v>
       </c>
       <c r="Q6" s="11"/>
@@ -3838,19 +3838,19 @@
         <v>38</v>
       </c>
       <c r="AA6" s="11">
-        <f>W6+X6+Y6+Z6</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AB6" s="11">
         <v>100</v>
       </c>
       <c r="AC6" s="11">
-        <f>P6+(AA6*AB6)</f>
+        <f t="shared" si="2"/>
         <v>10307</v>
       </c>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="11" t="s">
         <v>85</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>89</v>
       </c>
       <c r="P7" s="11">
-        <f>L7+M7+N7</f>
+        <f t="shared" si="0"/>
         <v>706</v>
       </c>
       <c r="Q7" s="11"/>
@@ -3925,19 +3925,19 @@
         <v>38</v>
       </c>
       <c r="AA7" s="11">
-        <f>W7+X7+Y7+Z7</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="AB7" s="11">
         <v>100</v>
       </c>
       <c r="AC7" s="11">
-        <f>P7+(AA7*AB7)</f>
+        <f t="shared" si="2"/>
         <v>10406</v>
       </c>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>65</v>
       </c>
       <c r="P8" s="11">
-        <f>L8+M8+N8</f>
+        <f t="shared" si="0"/>
         <v>705</v>
       </c>
       <c r="Q8" s="11"/>
@@ -4012,19 +4012,19 @@
         <v>39</v>
       </c>
       <c r="AA8" s="11">
-        <f>W8+X8+Y8+Z8</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AB8" s="11">
         <v>100</v>
       </c>
       <c r="AC8" s="11">
-        <f>P8+(AA8*AB8)</f>
+        <f t="shared" si="2"/>
         <v>10705</v>
       </c>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="12" t="s">
         <v>77</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>79</v>
       </c>
       <c r="P9" s="11">
-        <f>L9+M9+N9</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="Q9" s="11"/>
@@ -4099,19 +4099,19 @@
         <v>38</v>
       </c>
       <c r="AA9" s="11">
-        <f>W9+X9+Y9+Z9</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="AB9" s="11">
         <v>100</v>
       </c>
       <c r="AC9" s="11">
-        <f>P9+(AA9*AB9)</f>
+        <f t="shared" si="2"/>
         <v>10404</v>
       </c>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="12" t="s">
         <v>82</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>84</v>
       </c>
       <c r="P10" s="11">
-        <f>L10+M10+N10</f>
+        <f t="shared" si="0"/>
         <v>701</v>
       </c>
       <c r="Q10" s="11"/>
@@ -4186,19 +4186,19 @@
         <v>38</v>
       </c>
       <c r="AA10" s="11">
-        <f>W10+X10+Y10+Z10</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AB10" s="11">
         <v>100</v>
       </c>
       <c r="AC10" s="11">
-        <f>P10+(AA10*AB10)</f>
+        <f t="shared" si="2"/>
         <v>10501</v>
       </c>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="12" t="s">
         <v>78</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>97</v>
       </c>
       <c r="P11" s="11">
-        <f>L11+M11+N11</f>
+        <f t="shared" si="0"/>
         <v>701</v>
       </c>
       <c r="Q11" s="11"/>
@@ -4273,19 +4273,19 @@
         <v>39</v>
       </c>
       <c r="AA11" s="11">
-        <f>W11+X11+Y11+Z11</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="AB11" s="11">
         <v>100</v>
       </c>
       <c r="AC11" s="11">
-        <f>P11+(AA11*AB11)</f>
+        <f t="shared" si="2"/>
         <v>10401</v>
       </c>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>89</v>
       </c>
       <c r="P12" s="11">
-        <f>L12+M12+N12</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="Q12" s="11"/>
@@ -4360,19 +4360,19 @@
         <v>38</v>
       </c>
       <c r="AA12" s="11">
-        <f>W12+X12+Y12+Z12</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AB12" s="11">
         <v>100</v>
       </c>
       <c r="AC12" s="11">
-        <f>P12+(AA12*AB12)</f>
+        <f t="shared" si="2"/>
         <v>10500</v>
       </c>
       <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>80</v>
       </c>
       <c r="P13" s="11">
-        <f>L13+M13+N13</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="Q13" s="11"/>
@@ -4447,19 +4447,19 @@
         <v>35</v>
       </c>
       <c r="AA13" s="11">
-        <f>W13+X13+Y13+Z13</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="AB13" s="11">
         <v>100</v>
       </c>
       <c r="AC13" s="11">
-        <f>P13+(AA13*AB13)</f>
+        <f t="shared" si="2"/>
         <v>10100</v>
       </c>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="11" t="s">
         <v>67</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>80</v>
       </c>
       <c r="P14" s="11">
-        <f>L14+M14+N14</f>
+        <f t="shared" si="0"/>
         <v>695</v>
       </c>
       <c r="Q14" s="11"/>
@@ -4534,19 +4534,19 @@
         <v>37</v>
       </c>
       <c r="AA14" s="11">
-        <f>W14+X14+Y14+Z14</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AB14" s="11">
         <v>100</v>
       </c>
       <c r="AC14" s="11">
-        <f>P14+(AA14*AB14)</f>
+        <f t="shared" si="2"/>
         <v>10295</v>
       </c>
       <c r="AD14" s="11"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="11">
-        <f>L15+M15+N15</f>
+        <f t="shared" si="0"/>
         <v>695</v>
       </c>
       <c r="Q15" s="11"/>
@@ -4621,19 +4621,19 @@
         <v>36</v>
       </c>
       <c r="AA15" s="11">
-        <f>W15+X15+Y15+Z15</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="AB15" s="11">
         <v>100</v>
       </c>
       <c r="AC15" s="11">
-        <f>P15+(AA15*AB15)</f>
+        <f t="shared" si="2"/>
         <v>9995</v>
       </c>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="12" t="s">
         <v>92</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>85</v>
       </c>
       <c r="P16" s="11">
-        <f>L16+M16+N16</f>
+        <f t="shared" si="0"/>
         <v>693</v>
       </c>
       <c r="Q16" s="11"/>
@@ -4708,19 +4708,19 @@
         <v>35</v>
       </c>
       <c r="AA16" s="11">
-        <f>W16+X16+Y16+Z16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="AB16" s="11">
         <v>100</v>
       </c>
       <c r="AC16" s="11">
-        <f>P16+(AA16*AB16)</f>
+        <f t="shared" si="2"/>
         <v>9693</v>
       </c>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="14" t="s">
         <v>54</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>85</v>
       </c>
       <c r="P17" s="14">
-        <f>L17+M17+N17</f>
+        <f t="shared" si="0"/>
         <v>684</v>
       </c>
       <c r="Q17" s="14"/>
@@ -4795,23 +4795,23 @@
         <v>38</v>
       </c>
       <c r="AA17" s="14">
-        <f>W17+X17+Y17+Z17</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AB17" s="14">
         <v>100</v>
       </c>
       <c r="AC17" s="14">
-        <f>P17+(AA17*AB17)</f>
+        <f t="shared" si="2"/>
         <v>10484</v>
       </c>
       <c r="AD17" s="14"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:30">
+      <c r="A18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -4852,7 +4852,7 @@
         <v>83</v>
       </c>
       <c r="P18" s="14">
-        <f>L18+M18+N18</f>
+        <f t="shared" si="0"/>
         <v>682</v>
       </c>
       <c r="Q18" s="14"/>
@@ -4882,19 +4882,19 @@
         <v>36</v>
       </c>
       <c r="AA18" s="14">
-        <f>W18+X18+Y18+Z18</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AB18" s="14">
         <v>100</v>
       </c>
       <c r="AC18" s="14">
-        <f>P18+(AA18*AB18)</f>
+        <f t="shared" si="2"/>
         <v>10282</v>
       </c>
       <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>86</v>
       </c>
       <c r="P19" s="14">
-        <f>L19+M19+N19</f>
+        <f t="shared" si="0"/>
         <v>674</v>
       </c>
       <c r="Q19" s="14"/>
@@ -4969,19 +4969,19 @@
         <v>38</v>
       </c>
       <c r="AA19" s="14">
-        <f>W19+X19+Y19+Z19</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AB19" s="14">
         <v>100</v>
       </c>
       <c r="AC19" s="14">
-        <f>P19+(AA19*AB19)</f>
+        <f t="shared" si="2"/>
         <v>10274</v>
       </c>
       <c r="AD19" s="14"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>82</v>
       </c>
       <c r="P20" s="11">
-        <f>L20+M20+N20</f>
+        <f t="shared" si="0"/>
         <v>674</v>
       </c>
       <c r="Q20" s="11"/>
@@ -5056,19 +5056,19 @@
         <v>34</v>
       </c>
       <c r="AA20" s="11">
-        <f>W20+X20+Y20+Z20</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="AB20" s="11">
         <v>100</v>
       </c>
       <c r="AC20" s="11">
-        <f>P20+(AA20*AB20)</f>
+        <f t="shared" si="2"/>
         <v>9074</v>
       </c>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="11" t="s">
         <v>45</v>
       </c>
@@ -5101,20 +5101,20 @@
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M21" s="11">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="N21" s="11">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="O21" s="11">
         <v>87</v>
       </c>
       <c r="P21" s="11">
-        <f>L21+M21+N21</f>
-        <v>670</v>
+        <f t="shared" si="0"/>
+        <v>704</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11">
@@ -5143,19 +5143,19 @@
         <v>38</v>
       </c>
       <c r="AA21" s="11">
-        <f>W21+X21+Y21+Z21</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="AB21" s="11">
         <v>100</v>
       </c>
       <c r="AC21" s="11">
-        <f>P21+(AA21*AB21)</f>
-        <v>9970</v>
+        <f t="shared" si="2"/>
+        <v>10004</v>
       </c>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="14" t="s">
         <v>50</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="14">
-        <f>L22+M22+N22</f>
+        <f t="shared" si="0"/>
         <v>662</v>
       </c>
       <c r="Q22" s="14"/>
@@ -5230,23 +5230,23 @@
         <v>37</v>
       </c>
       <c r="AA22" s="14">
-        <f>W22+X22+Y22+Z22</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="AB22" s="14">
         <v>100</v>
       </c>
       <c r="AC22" s="14">
-        <f>P22+(AA22*AB22)</f>
+        <f t="shared" si="2"/>
         <v>10562</v>
       </c>
       <c r="AD22" s="14"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:30">
+      <c r="A23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -5287,7 +5287,7 @@
         <v>75</v>
       </c>
       <c r="P23" s="14">
-        <f>L23+M23+N23</f>
+        <f t="shared" si="0"/>
         <v>656</v>
       </c>
       <c r="Q23" s="14"/>
@@ -5317,19 +5317,19 @@
         <v>35</v>
       </c>
       <c r="AA23" s="14">
-        <f>W23+X23+Y23+Z23</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="AB23" s="14">
         <v>100</v>
       </c>
       <c r="AC23" s="14">
-        <f>P23+(AA23*AB23)</f>
+        <f t="shared" si="2"/>
         <v>9656</v>
       </c>
       <c r="AD23" s="14"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>85</v>
       </c>
       <c r="P24" s="11">
-        <f>L24+M24+N24</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="Q24" s="11"/>
@@ -5404,23 +5404,23 @@
         <v>40</v>
       </c>
       <c r="AA24" s="11">
-        <f>W24+X24+Y24+Z24</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AB24" s="11">
         <v>100</v>
       </c>
       <c r="AC24" s="11">
-        <f>P24+(AA24*AB24)</f>
+        <f t="shared" si="2"/>
         <v>11152</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:30">
+      <c r="A25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -5461,7 +5461,7 @@
         <v>80</v>
       </c>
       <c r="P25" s="14">
-        <f>L25+M25+N25</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="Q25" s="14"/>
@@ -5491,19 +5491,19 @@
         <v>35</v>
       </c>
       <c r="AA25" s="14">
-        <f>W25+X25+Y25+Z25</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="AB25" s="14">
         <v>100</v>
       </c>
       <c r="AC25" s="14">
-        <f>P25+(AA25*AB25)</f>
+        <f t="shared" si="2"/>
         <v>9449</v>
       </c>
       <c r="AD25" s="14"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>83</v>
       </c>
       <c r="P26" s="14">
-        <f>L26+M26+N26</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="Q26" s="14"/>
@@ -5578,23 +5578,23 @@
         <v>35</v>
       </c>
       <c r="AA26" s="14">
-        <f>W26+X26+Y26+Z26</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="AB26" s="14">
         <v>100</v>
       </c>
       <c r="AC26" s="14">
-        <f>P26+(AA26*AB26)</f>
+        <f t="shared" si="2"/>
         <v>9740</v>
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:30">
+      <c r="A27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="27">
         <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5635,7 +5635,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="14">
-        <f>L27+M27+N27</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="Q27" s="14"/>
@@ -5665,19 +5665,19 @@
         <v>32</v>
       </c>
       <c r="AA27" s="14">
-        <f>W27+X27+Y27+Z27</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="AB27" s="14">
         <v>100</v>
       </c>
       <c r="AC27" s="14">
-        <f>P27+(AA27*AB27)</f>
+        <f t="shared" si="2"/>
         <v>8640</v>
       </c>
       <c r="AD27" s="14"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>85</v>
       </c>
       <c r="P28" s="14">
-        <f>L28+M28+N28</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="Q28" s="14"/>
@@ -5752,23 +5752,23 @@
         <v>36</v>
       </c>
       <c r="AA28" s="14">
-        <f>W28+X28+Y28+Z28</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="AB28" s="14">
         <v>100</v>
       </c>
       <c r="AC28" s="14">
-        <f>P28+(AA28*AB28)</f>
+        <f t="shared" si="2"/>
         <v>9937</v>
       </c>
       <c r="AD28" s="14"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:30">
+      <c r="A29" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5809,7 +5809,7 @@
         <v>77</v>
       </c>
       <c r="P29" s="14">
-        <f>L29+M29+N29</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="Q29" s="14"/>
@@ -5839,23 +5839,23 @@
         <v>35</v>
       </c>
       <c r="AA29" s="14">
-        <f>W29+X29+Y29+Z29</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="AB29" s="14">
         <v>100</v>
       </c>
       <c r="AC29" s="14">
-        <f>P29+(AA29*AB29)</f>
+        <f t="shared" si="2"/>
         <v>9336</v>
       </c>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+    <row r="30" spans="1:30">
+      <c r="A30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <v>2</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5896,7 +5896,7 @@
         <v>62</v>
       </c>
       <c r="P30" s="14">
-        <f>L30+M30+N30</f>
+        <f t="shared" si="0"/>
         <v>615</v>
       </c>
       <c r="Q30" s="14"/>
@@ -5926,19 +5926,19 @@
         <v>34</v>
       </c>
       <c r="AA30" s="14">
-        <f>W30+X30+Y30+Z30</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="AB30" s="14">
         <v>100</v>
       </c>
       <c r="AC30" s="14">
-        <f>P30+(AA30*AB30)</f>
+        <f t="shared" si="2"/>
         <v>9215</v>
       </c>
       <c r="AD30" s="14"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>80</v>
       </c>
       <c r="P31" s="14">
-        <f>L31+M31+N31</f>
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
       <c r="Q31" s="14"/>
@@ -6013,23 +6013,23 @@
         <v>36</v>
       </c>
       <c r="AA31" s="14">
-        <f>W31+X31+Y31+Z31</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="AB31" s="14">
         <v>100</v>
       </c>
       <c r="AC31" s="14">
-        <f>P31+(AA31*AB31)</f>
+        <f t="shared" si="2"/>
         <v>9813</v>
       </c>
       <c r="AD31" s="14"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+    <row r="32" spans="1:30">
+      <c r="A32" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -6070,7 +6070,7 @@
         <v>82</v>
       </c>
       <c r="P32" s="14">
-        <f>L32+M32+N32</f>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="Q32" s="14"/>
@@ -6100,19 +6100,19 @@
         <v>34</v>
       </c>
       <c r="AA32" s="14">
-        <f>W32+X32+Y32+Z32</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="AB32" s="14">
         <v>100</v>
       </c>
       <c r="AC32" s="14">
-        <f>P32+(AA32*AB32)</f>
+        <f t="shared" si="2"/>
         <v>8911</v>
       </c>
       <c r="AD32" s="14"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>90</v>
       </c>
       <c r="P33" s="14">
-        <f>L33+M33+N33</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="Q33" s="14"/>
@@ -6187,21 +6187,21 @@
         <v>35</v>
       </c>
       <c r="AA33" s="14">
-        <f>W33+X33+Y33+Z33</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="AB33" s="14">
         <v>100</v>
       </c>
       <c r="AC33" s="14">
-        <f>P33+(AA33*AB33)</f>
+        <f t="shared" si="2"/>
         <v>9210</v>
       </c>
       <c r="AD33" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="P34" s="14">
-        <f>L34+M34+N34</f>
+        <f t="shared" ref="P34:P51" si="3">L34+M34+N34</f>
         <v>605</v>
       </c>
       <c r="Q34" s="14"/>
@@ -6276,19 +6276,19 @@
         <v>35</v>
       </c>
       <c r="AA34" s="14">
-        <f>W34+X34+Y34+Z34</f>
+        <f t="shared" ref="AA34:AA65" si="4">W34+X34+Y34+Z34</f>
         <v>89</v>
       </c>
       <c r="AB34" s="14">
         <v>100</v>
       </c>
       <c r="AC34" s="14">
-        <f>P34+(AA34*AB34)</f>
+        <f t="shared" ref="AC34:AC65" si="5">P34+(AA34*AB34)</f>
         <v>9505</v>
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="14" t="s">
         <v>71</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>72</v>
       </c>
       <c r="P35" s="14">
-        <f>L35+M35+N35</f>
+        <f t="shared" si="3"/>
         <v>603</v>
       </c>
       <c r="Q35" s="14"/>
@@ -6363,19 +6363,19 @@
         <v>34</v>
       </c>
       <c r="AA35" s="14">
-        <f>W35+X35+Y35+Z35</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="AB35" s="14">
         <v>100</v>
       </c>
       <c r="AC35" s="14">
-        <f>P35+(AA35*AB35)</f>
+        <f t="shared" si="5"/>
         <v>9203</v>
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="14" t="s">
         <v>70</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>74</v>
       </c>
       <c r="P36" s="14">
-        <f>L36+M36+N36</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="Q36" s="14"/>
@@ -6450,19 +6450,19 @@
         <v>35</v>
       </c>
       <c r="AA36" s="14">
-        <f>W36+X36+Y36+Z36</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="AB36" s="14">
         <v>100</v>
       </c>
       <c r="AC36" s="14">
-        <f>P36+(AA36*AB36)</f>
+        <f t="shared" si="5"/>
         <v>9900</v>
       </c>
       <c r="AD36" s="14"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="14" t="s">
         <v>49</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>84</v>
       </c>
       <c r="P37" s="14">
-        <f>L37+M37+N37</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="Q37" s="14"/>
@@ -6537,21 +6537,21 @@
         <v>33</v>
       </c>
       <c r="AA37" s="14">
-        <f>W37+X37+Y37+Z37</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="AB37" s="14">
         <v>100</v>
       </c>
       <c r="AC37" s="14">
-        <f>P37+(AA37*AB37)</f>
+        <f t="shared" si="5"/>
         <v>9100</v>
       </c>
       <c r="AD37" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="14" t="s">
         <v>72</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>65</v>
       </c>
       <c r="P38" s="14">
-        <f>L38+M38+N38</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="Q38" s="14"/>
@@ -6626,19 +6626,19 @@
         <v>34</v>
       </c>
       <c r="AA38" s="14">
-        <f>W38+X38+Y38+Z38</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="AB38" s="14">
         <v>100</v>
       </c>
       <c r="AC38" s="14">
-        <f>P38+(AA38*AB38)</f>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="AD38" s="14"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="14" t="s">
         <v>52</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>82</v>
       </c>
       <c r="P39" s="14">
-        <f>L39+M39+N39</f>
+        <f t="shared" si="3"/>
         <v>597</v>
       </c>
       <c r="Q39" s="14"/>
@@ -6713,21 +6713,21 @@
         <v>35</v>
       </c>
       <c r="AA39" s="14">
-        <f>W39+X39+Y39+Z39</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="AB39" s="14">
         <v>100</v>
       </c>
       <c r="AC39" s="14">
-        <f>P39+(AA39*AB39)</f>
+        <f t="shared" si="5"/>
         <v>9397</v>
       </c>
       <c r="AD39" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="14" t="s">
         <v>73</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>73</v>
       </c>
       <c r="P40" s="14">
-        <f>L40+M40+N40</f>
+        <f t="shared" si="3"/>
         <v>597</v>
       </c>
       <c r="Q40" s="14"/>
@@ -6802,19 +6802,19 @@
         <v>32</v>
       </c>
       <c r="AA40" s="14">
-        <f>W40+X40+Y40+Z40</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="AB40" s="14">
         <v>100</v>
       </c>
       <c r="AC40" s="14">
-        <f>P40+(AA40*AB40)</f>
+        <f t="shared" si="5"/>
         <v>8597</v>
       </c>
       <c r="AD40" s="14"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="14" t="s">
         <v>69</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>73</v>
       </c>
       <c r="P41" s="14">
-        <f>L41+M41+N41</f>
+        <f t="shared" si="3"/>
         <v>596</v>
       </c>
       <c r="Q41" s="14"/>
@@ -6889,19 +6889,19 @@
         <v>35</v>
       </c>
       <c r="AA41" s="14">
-        <f>W41+X41+Y41+Z41</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="AB41" s="14">
         <v>100</v>
       </c>
       <c r="AC41" s="14">
-        <f>P41+(AA41*AB41)</f>
+        <f t="shared" si="5"/>
         <v>9696</v>
       </c>
       <c r="AD41" s="14"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>79</v>
       </c>
       <c r="P42" s="14">
-        <f>L42+M42+N42</f>
+        <f t="shared" si="3"/>
         <v>591</v>
       </c>
       <c r="Q42" s="14"/>
@@ -6976,19 +6976,19 @@
         <v>34</v>
       </c>
       <c r="AA42" s="14">
-        <f>W42+X42+Y42+Z42</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="AB42" s="14">
         <v>100</v>
       </c>
       <c r="AC42" s="14">
-        <f>P42+(AA42*AB42)</f>
+        <f t="shared" si="5"/>
         <v>9391</v>
       </c>
       <c r="AD42" s="14"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="14" t="s">
         <v>48</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>70</v>
       </c>
       <c r="P43" s="14">
-        <f>L43+M43+N43</f>
+        <f t="shared" si="3"/>
         <v>590</v>
       </c>
       <c r="Q43" s="14"/>
@@ -7063,21 +7063,21 @@
         <v>30</v>
       </c>
       <c r="AA43" s="14">
-        <f>W43+X43+Y43+Z43</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="AB43" s="14">
         <v>100</v>
       </c>
       <c r="AC43" s="14">
-        <f>P43+(AA43*AB43)</f>
+        <f t="shared" si="5"/>
         <v>8990</v>
       </c>
       <c r="AD43" s="14" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="14" t="s">
         <v>74</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>79</v>
       </c>
       <c r="P44" s="14">
-        <f>L44+M44+N44</f>
+        <f t="shared" si="3"/>
         <v>587</v>
       </c>
       <c r="Q44" s="14"/>
@@ -7152,19 +7152,19 @@
         <v>32</v>
       </c>
       <c r="AA44" s="14">
-        <f>W44+X44+Y44+Z44</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="AB44" s="14">
         <v>100</v>
       </c>
       <c r="AC44" s="14">
-        <f>P44+(AA44*AB44)</f>
+        <f t="shared" si="5"/>
         <v>8587</v>
       </c>
       <c r="AD44" s="14"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>73</v>
       </c>
       <c r="P45" s="14">
-        <f>L45+M45+N45</f>
+        <f t="shared" si="3"/>
         <v>585</v>
       </c>
       <c r="Q45" s="14"/>
@@ -7239,25 +7239,25 @@
         <v>34</v>
       </c>
       <c r="AA45" s="14">
-        <f>W45+X45+Y45+Z45</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="AB45" s="14">
         <v>100</v>
       </c>
       <c r="AC45" s="14">
-        <f>P45+(AA45*AB45)</f>
+        <f t="shared" si="5"/>
         <v>9085</v>
       </c>
       <c r="AD45" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:30">
+      <c r="A46" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="27">
         <v>2</v>
       </c>
       <c r="C46" s="14" t="s">
@@ -7298,7 +7298,7 @@
         <v>75</v>
       </c>
       <c r="P46" s="14">
-        <f>L46+M46+N46</f>
+        <f t="shared" si="3"/>
         <v>584</v>
       </c>
       <c r="Q46" s="14"/>
@@ -7328,19 +7328,19 @@
         <v>32</v>
       </c>
       <c r="AA46" s="14">
-        <f>W46+X46+Y46+Z46</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="AB46" s="14">
         <v>100</v>
       </c>
       <c r="AC46" s="14">
-        <f>P46+(AA46*AB46)</f>
+        <f t="shared" si="5"/>
         <v>8584</v>
       </c>
       <c r="AD46" s="14"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="14" t="s">
         <v>75</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>74</v>
       </c>
       <c r="P47" s="14">
-        <f>L47+M47+N47</f>
+        <f t="shared" si="3"/>
         <v>571</v>
       </c>
       <c r="Q47" s="14"/>
@@ -7415,23 +7415,23 @@
         <v>30</v>
       </c>
       <c r="AA47" s="14">
-        <f>W47+X47+Y47+Z47</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="AB47" s="14">
         <v>100</v>
       </c>
       <c r="AC47" s="14">
-        <f>P47+(AA47*AB47)</f>
+        <f t="shared" si="5"/>
         <v>7971</v>
       </c>
       <c r="AD47" s="14"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:30">
+      <c r="A48" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="27">
         <v>2</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -7472,7 +7472,7 @@
         <v>79</v>
       </c>
       <c r="P48" s="14">
-        <f>L48+M48+N48</f>
+        <f t="shared" si="3"/>
         <v>566</v>
       </c>
       <c r="Q48" s="14"/>
@@ -7502,23 +7502,23 @@
         <v>32</v>
       </c>
       <c r="AA48" s="14">
-        <f>W48+X48+Y48+Z48</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="AB48" s="14">
         <v>100</v>
       </c>
       <c r="AC48" s="14">
-        <f>P48+(AA48*AB48)</f>
+        <f t="shared" si="5"/>
         <v>7866</v>
       </c>
       <c r="AD48" s="14"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:30">
+      <c r="A49" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="27">
         <v>2</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -7559,7 +7559,7 @@
         <v>75</v>
       </c>
       <c r="P49" s="14">
-        <f>L49+M49+N49</f>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="Q49" s="14"/>
@@ -7589,19 +7589,19 @@
         <v>30</v>
       </c>
       <c r="AA49" s="14">
-        <f>W49+X49+Y49+Z49</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="AB49" s="14">
         <v>100</v>
       </c>
       <c r="AC49" s="14">
-        <f>P49+(AA49*AB49)</f>
+        <f t="shared" si="5"/>
         <v>7310</v>
       </c>
       <c r="AD49" s="14"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30">
       <c r="A50" s="14" t="s">
         <v>290</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>65</v>
       </c>
       <c r="P50" s="14">
-        <f>L50+M50+N50</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="Q50" s="14"/>
@@ -7676,23 +7676,23 @@
         <v>24</v>
       </c>
       <c r="AA50" s="14">
-        <f>W50+X50+Y50+Z50</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="AB50" s="14">
         <v>100</v>
       </c>
       <c r="AC50" s="14">
-        <f>P50+(AA50*AB50)</f>
+        <f t="shared" si="5"/>
         <v>6495</v>
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+    <row r="51" spans="1:30">
+      <c r="A51" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="27">
         <v>2</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -7733,7 +7733,7 @@
         <v>58</v>
       </c>
       <c r="P51" s="14">
-        <f>L51+M51+N51</f>
+        <f t="shared" si="3"/>
         <v>415</v>
       </c>
       <c r="Q51" s="14"/>
@@ -7763,21 +7763,21 @@
         <v>24</v>
       </c>
       <c r="AA51" s="14">
-        <f>W51+X51+Y51+Z51</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="AB51" s="14">
         <v>100</v>
       </c>
       <c r="AC51" s="14">
-        <f>P51+(AA51*AB51)</f>
+        <f t="shared" si="5"/>
         <v>5915</v>
       </c>
       <c r="AD51" s="14"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+    <row r="52" spans="1:30">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -7803,18 +7803,18 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
       <c r="AA52" s="14">
-        <f t="shared" ref="AA52:AA115" si="0">W52+X52+Y52+Z52</f>
+        <f t="shared" ref="AA52:AA115" si="6">W52+X52+Y52+Z52</f>
         <v>0</v>
       </c>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
       <c r="AD52" s="14"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:30">
+      <c r="A53" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="14" t="s">
         <v>115</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
       <c r="P53" s="14">
-        <f t="shared" ref="P53:P117" si="1">L53+M53+N53</f>
+        <f t="shared" ref="P53:P117" si="7">L53+M53+N53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="14"/>
@@ -7849,18 +7849,18 @@
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
       <c r="AA53" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB53" s="14"/>
       <c r="AC53" s="14"/>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:30">
+      <c r="A54" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="14" t="s">
         <v>115</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q54" s="14"/>
@@ -7895,18 +7895,18 @@
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
       <c r="AA54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB54" s="14"/>
       <c r="AC54" s="14"/>
       <c r="AD54" s="14"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:30">
+      <c r="A55" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="14" t="s">
         <v>115</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q55" s="14"/>
@@ -7941,18 +7941,18 @@
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
       <c r="AA55" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14"/>
       <c r="AD55" s="14"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:30">
+      <c r="A56" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="14" t="s">
         <v>115</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q56" s="14"/>
@@ -7987,14 +7987,14 @@
       <c r="Y56" s="14"/>
       <c r="Z56" s="14"/>
       <c r="AA56" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB56" s="14"/>
       <c r="AC56" s="14"/>
       <c r="AD56" s="14"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -8011,7 +8011,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q57" s="14"/>
@@ -8025,14 +8025,14 @@
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB57" s="14"/>
       <c r="AC57" s="14"/>
       <c r="AD57" s="14"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" s="14" t="s">
         <v>154</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q58" s="14"/>
@@ -8067,7 +8067,7 @@
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB58" s="14"/>
@@ -8076,7 +8076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" s="14" t="s">
         <v>159</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q59" s="14"/>
@@ -8109,7 +8109,7 @@
       <c r="Y59" s="14"/>
       <c r="Z59" s="14"/>
       <c r="AA59" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB59" s="14"/>
@@ -8118,7 +8118,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" s="14" t="s">
         <v>162</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q60" s="14"/>
@@ -8151,7 +8151,7 @@
       <c r="Y60" s="14"/>
       <c r="Z60" s="14"/>
       <c r="AA60" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB60" s="14"/>
@@ -8160,7 +8160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" s="14" t="s">
         <v>163</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q61" s="14"/>
@@ -8193,14 +8193,14 @@
       <c r="Y61" s="14"/>
       <c r="Z61" s="14"/>
       <c r="AA61" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB61" s="14"/>
       <c r="AC61" s="14"/>
       <c r="AD61" s="14"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="14" t="s">
         <v>164</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q62" s="14"/>
@@ -8233,7 +8233,7 @@
       <c r="Y62" s="14"/>
       <c r="Z62" s="14"/>
       <c r="AA62" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB62" s="14"/>
@@ -8242,7 +8242,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" s="14" t="s">
         <v>165</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q63" s="14"/>
@@ -8275,14 +8275,14 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
       <c r="AA63" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14"/>
       <c r="AD63" s="14"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="14" t="s">
         <v>166</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q64" s="14"/>
@@ -8315,7 +8315,7 @@
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
       <c r="AA64" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB64" s="14"/>
@@ -8324,7 +8324,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30">
       <c r="A65" s="14" t="s">
         <v>167</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q65" s="14"/>
@@ -8357,14 +8357,14 @@
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB65" s="14"/>
       <c r="AC65" s="14"/>
       <c r="AD65" s="14"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30">
       <c r="A66" s="14" t="s">
         <v>168</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q66" s="14"/>
@@ -8399,7 +8399,7 @@
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
       <c r="AA66" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB66" s="14"/>
@@ -8408,7 +8408,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -8425,7 +8425,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
       <c r="P67" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q67" s="14"/>
@@ -8439,14 +8439,14 @@
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
       <c r="AA67" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB67" s="14"/>
       <c r="AC67" s="14"/>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -8463,7 +8463,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
       <c r="P68" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q68" s="14"/>
@@ -8477,14 +8477,14 @@
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
       <c r="AA68" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
       <c r="AD68" s="14"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -8501,7 +8501,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="14"/>
       <c r="P69" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q69" s="14"/>
@@ -8515,14 +8515,14 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB69" s="14"/>
       <c r="AC69" s="14"/>
       <c r="AD69" s="14"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -8539,7 +8539,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
       <c r="P70" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q70" s="14"/>
@@ -8553,14 +8553,14 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
       <c r="AA70" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB70" s="14"/>
       <c r="AC70" s="14"/>
       <c r="AD70" s="14"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -8577,7 +8577,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71" s="14"/>
@@ -8591,14 +8591,14 @@
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
       <c r="AA71" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB71" s="14"/>
       <c r="AC71" s="14"/>
       <c r="AD71" s="14"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -8615,7 +8615,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q72" s="14"/>
@@ -8629,14 +8629,14 @@
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
       <c r="AA72" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB72" s="14"/>
       <c r="AC72" s="14"/>
       <c r="AD72" s="14"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30">
       <c r="A73" s="14" t="s">
         <v>194</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73" s="14"/>
@@ -8669,14 +8669,14 @@
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB73" s="14"/>
       <c r="AC73" s="14"/>
       <c r="AD73" s="14"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30">
       <c r="A74" s="14" t="s">
         <v>195</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q74" s="14"/>
@@ -8709,14 +8709,14 @@
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB74" s="14"/>
       <c r="AC74" s="14"/>
       <c r="AD74" s="14"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30">
       <c r="A75" s="14" t="s">
         <v>196</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q75" s="14"/>
@@ -8749,14 +8749,14 @@
       <c r="Y75" s="14"/>
       <c r="Z75" s="14"/>
       <c r="AA75" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB75" s="14"/>
       <c r="AC75" s="14"/>
       <c r="AD75" s="14"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30">
       <c r="A76" s="14" t="s">
         <v>250</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q76" s="14"/>
@@ -8789,7 +8789,7 @@
       <c r="Y76" s="14"/>
       <c r="Z76" s="14"/>
       <c r="AA76" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB76" s="14"/>
@@ -8798,7 +8798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -8815,7 +8815,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q77" s="14"/>
@@ -8829,14 +8829,14 @@
       <c r="Y77" s="14"/>
       <c r="Z77" s="14"/>
       <c r="AA77" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB77" s="14"/>
       <c r="AC77" s="14"/>
       <c r="AD77" s="14"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -8853,7 +8853,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
       <c r="P78" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q78" s="14"/>
@@ -8867,14 +8867,14 @@
       <c r="Y78" s="14"/>
       <c r="Z78" s="14"/>
       <c r="AA78" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
       <c r="AD78" s="14"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -8891,7 +8891,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q79" s="14"/>
@@ -8905,14 +8905,14 @@
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
       <c r="AD79" s="14"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30">
       <c r="A80" s="14" t="s">
         <v>137</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
       <c r="P80" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q80" s="14"/>
@@ -8945,14 +8945,14 @@
       <c r="Y80" s="14"/>
       <c r="Z80" s="14"/>
       <c r="AA80" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB80" s="14"/>
       <c r="AC80" s="14"/>
       <c r="AD80" s="14"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30">
       <c r="A81" s="14" t="s">
         <v>138</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q81" s="14"/>
@@ -8985,14 +8985,14 @@
       <c r="Y81" s="14"/>
       <c r="Z81" s="14"/>
       <c r="AA81" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
       <c r="AD81" s="14"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30">
       <c r="A82" s="14" t="s">
         <v>139</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q82" s="14"/>
@@ -9025,14 +9025,14 @@
       <c r="Y82" s="14"/>
       <c r="Z82" s="14"/>
       <c r="AA82" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB82" s="14"/>
       <c r="AC82" s="14"/>
       <c r="AD82" s="14"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30">
       <c r="A83" s="14" t="s">
         <v>140</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q83" s="14"/>
@@ -9065,14 +9065,14 @@
       <c r="Y83" s="14"/>
       <c r="Z83" s="14"/>
       <c r="AA83" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
       <c r="AD83" s="14"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -9089,7 +9089,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q84" s="14"/>
@@ -9103,14 +9103,14 @@
       <c r="Y84" s="14"/>
       <c r="Z84" s="14"/>
       <c r="AA84" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
       <c r="AD84" s="14"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30">
       <c r="A85" s="14" t="s">
         <v>143</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q85" s="14"/>
@@ -9143,14 +9143,14 @@
       <c r="Y85" s="14"/>
       <c r="Z85" s="14"/>
       <c r="AA85" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB85" s="14"/>
       <c r="AC85" s="14"/>
       <c r="AD85" s="14"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -9167,7 +9167,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q86" s="14"/>
@@ -9181,14 +9181,14 @@
       <c r="Y86" s="14"/>
       <c r="Z86" s="14"/>
       <c r="AA86" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB86" s="14"/>
       <c r="AC86" s="14"/>
       <c r="AD86" s="14"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30">
       <c r="A87" s="14" t="s">
         <v>146</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q87" s="14"/>
@@ -9221,7 +9221,7 @@
       <c r="Y87" s="14"/>
       <c r="Z87" s="14"/>
       <c r="AA87" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB87" s="14"/>
@@ -9230,7 +9230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30">
       <c r="A88" s="14" t="s">
         <v>147</v>
       </c>
@@ -9249,7 +9249,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q88" s="14"/>
@@ -9263,7 +9263,7 @@
       <c r="Y88" s="14"/>
       <c r="Z88" s="14"/>
       <c r="AA88" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB88" s="14"/>
@@ -9272,7 +9272,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30">
       <c r="A89" s="14" t="s">
         <v>148</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q89" s="14"/>
@@ -9305,7 +9305,7 @@
       <c r="Y89" s="14"/>
       <c r="Z89" s="14"/>
       <c r="AA89" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB89" s="14"/>
@@ -9314,7 +9314,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30">
       <c r="A90" s="14" t="s">
         <v>152</v>
       </c>
@@ -9333,7 +9333,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q90" s="14"/>
@@ -9347,7 +9347,7 @@
       <c r="Y90" s="14"/>
       <c r="Z90" s="14"/>
       <c r="AA90" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB90" s="14"/>
@@ -9356,7 +9356,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30">
       <c r="A91" s="14" t="s">
         <v>156</v>
       </c>
@@ -9375,7 +9375,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q91" s="14"/>
@@ -9389,14 +9389,14 @@
       <c r="Y91" s="14"/>
       <c r="Z91" s="14"/>
       <c r="AA91" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14"/>
       <c r="AD91" s="14"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30">
       <c r="A92" s="14" t="s">
         <v>157</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q92" s="14"/>
@@ -9429,14 +9429,14 @@
       <c r="Y92" s="14"/>
       <c r="Z92" s="14"/>
       <c r="AA92" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB92" s="14"/>
       <c r="AC92" s="14"/>
       <c r="AD92" s="14"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30">
       <c r="A93" s="14" t="s">
         <v>158</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q93" s="14"/>
@@ -9469,14 +9469,14 @@
       <c r="Y93" s="14"/>
       <c r="Z93" s="14"/>
       <c r="AA93" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB93" s="14"/>
       <c r="AC93" s="14"/>
       <c r="AD93" s="14"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -9493,7 +9493,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q94" s="14"/>
@@ -9507,14 +9507,14 @@
       <c r="Y94" s="14"/>
       <c r="Z94" s="14"/>
       <c r="AA94" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB94" s="14"/>
       <c r="AC94" s="14"/>
       <c r="AD94" s="14"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30">
       <c r="A95" s="14" t="s">
         <v>169</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q95" s="14"/>
@@ -9547,14 +9547,14 @@
       <c r="Y95" s="14"/>
       <c r="Z95" s="14"/>
       <c r="AA95" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB95" s="14"/>
       <c r="AC95" s="14"/>
       <c r="AD95" s="14"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30">
       <c r="A96" s="14" t="s">
         <v>181</v>
       </c>
@@ -9573,7 +9573,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
       <c r="P96" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q96" s="14"/>
@@ -9587,7 +9587,7 @@
       <c r="Y96" s="14"/>
       <c r="Z96" s="14"/>
       <c r="AA96" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB96" s="14"/>
@@ -9596,7 +9596,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30">
       <c r="A97" s="14" t="s">
         <v>183</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q97" s="14"/>
@@ -9629,7 +9629,7 @@
       <c r="Y97" s="14"/>
       <c r="Z97" s="14"/>
       <c r="AA97" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB97" s="14"/>
@@ -9638,7 +9638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -9655,7 +9655,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="14"/>
       <c r="P98" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q98" s="14"/>
@@ -9669,14 +9669,14 @@
       <c r="Y98" s="14"/>
       <c r="Z98" s="14"/>
       <c r="AA98" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB98" s="14"/>
       <c r="AC98" s="14"/>
       <c r="AD98" s="14"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -9693,7 +9693,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q99" s="14"/>
@@ -9707,14 +9707,14 @@
       <c r="Y99" s="14"/>
       <c r="Z99" s="14"/>
       <c r="AA99" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB99" s="14"/>
       <c r="AC99" s="14"/>
       <c r="AD99" s="14"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30">
       <c r="A100" s="14" t="s">
         <v>179</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="14"/>
       <c r="P100" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q100" s="14"/>
@@ -9747,14 +9747,14 @@
       <c r="Y100" s="14"/>
       <c r="Z100" s="14"/>
       <c r="AA100" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB100" s="14"/>
       <c r="AC100" s="14"/>
       <c r="AD100" s="14"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30">
       <c r="A101" s="14" t="s">
         <v>180</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q101" s="14"/>
@@ -9787,14 +9787,14 @@
       <c r="Y101" s="14"/>
       <c r="Z101" s="14"/>
       <c r="AA101" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB101" s="14"/>
       <c r="AC101" s="14"/>
       <c r="AD101" s="14"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30">
       <c r="A102" s="14" t="s">
         <v>171</v>
       </c>
@@ -9813,7 +9813,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q102" s="14"/>
@@ -9827,14 +9827,14 @@
       <c r="Y102" s="14"/>
       <c r="Z102" s="14"/>
       <c r="AA102" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB102" s="14"/>
       <c r="AC102" s="14"/>
       <c r="AD102" s="14"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30">
       <c r="A103" s="14" t="s">
         <v>172</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
       <c r="P103" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q103" s="14"/>
@@ -9867,14 +9867,14 @@
       <c r="Y103" s="14"/>
       <c r="Z103" s="14"/>
       <c r="AA103" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB103" s="14"/>
       <c r="AC103" s="14"/>
       <c r="AD103" s="14"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30">
       <c r="A104" s="14" t="s">
         <v>173</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="14"/>
       <c r="P104" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q104" s="14"/>
@@ -9907,14 +9907,14 @@
       <c r="Y104" s="14"/>
       <c r="Z104" s="14"/>
       <c r="AA104" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB104" s="14"/>
       <c r="AC104" s="14"/>
       <c r="AD104" s="14"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30">
       <c r="A105" s="14" t="s">
         <v>174</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q105" s="14"/>
@@ -9947,14 +9947,14 @@
       <c r="Y105" s="14"/>
       <c r="Z105" s="14"/>
       <c r="AA105" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB105" s="14"/>
       <c r="AC105" s="14"/>
       <c r="AD105" s="14"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30">
       <c r="A106" s="14" t="s">
         <v>176</v>
       </c>
@@ -9973,7 +9973,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="14"/>
       <c r="P106" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q106" s="14"/>
@@ -9987,14 +9987,14 @@
       <c r="Y106" s="14"/>
       <c r="Z106" s="14"/>
       <c r="AA106" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB106" s="14"/>
       <c r="AC106" s="14"/>
       <c r="AD106" s="14"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30">
       <c r="A107" s="14" t="s">
         <v>177</v>
       </c>
@@ -10013,7 +10013,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
       <c r="P107" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q107" s="14"/>
@@ -10027,14 +10027,14 @@
       <c r="Y107" s="14"/>
       <c r="Z107" s="14"/>
       <c r="AA107" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB107" s="14"/>
       <c r="AC107" s="14"/>
       <c r="AD107" s="14"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30">
       <c r="A108" s="14" t="s">
         <v>178</v>
       </c>
@@ -10053,7 +10053,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
       <c r="P108" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q108" s="14"/>
@@ -10067,14 +10067,14 @@
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
       <c r="AA108" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB108" s="14"/>
       <c r="AC108" s="14"/>
       <c r="AD108" s="14"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -10091,7 +10091,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q109" s="14"/>
@@ -10105,14 +10105,14 @@
       <c r="Y109" s="14"/>
       <c r="Z109" s="14"/>
       <c r="AA109" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB109" s="14"/>
       <c r="AC109" s="14"/>
       <c r="AD109" s="14"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -10129,7 +10129,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q110" s="14"/>
@@ -10143,14 +10143,14 @@
       <c r="Y110" s="14"/>
       <c r="Z110" s="14"/>
       <c r="AA110" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB110" s="14"/>
       <c r="AC110" s="14"/>
       <c r="AD110" s="14"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30">
       <c r="A111" s="14" t="s">
         <v>186</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
       <c r="P111" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q111" s="14"/>
@@ -10183,14 +10183,14 @@
       <c r="Y111" s="14"/>
       <c r="Z111" s="14"/>
       <c r="AA111" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB111" s="14"/>
       <c r="AC111" s="14"/>
       <c r="AD111" s="14"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30">
       <c r="A112" s="14" t="s">
         <v>185</v>
       </c>
@@ -10209,7 +10209,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
       <c r="P112" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q112" s="14"/>
@@ -10223,14 +10223,14 @@
       <c r="Y112" s="14"/>
       <c r="Z112" s="14"/>
       <c r="AA112" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB112" s="14"/>
       <c r="AC112" s="14"/>
       <c r="AD112" s="14"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30">
       <c r="A113" s="14" t="s">
         <v>187</v>
       </c>
@@ -10249,7 +10249,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
       <c r="P113" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q113" s="14"/>
@@ -10263,7 +10263,7 @@
       <c r="Y113" s="14"/>
       <c r="Z113" s="14"/>
       <c r="AA113" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB113" s="14"/>
@@ -10272,7 +10272,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30">
       <c r="A114" s="14" t="s">
         <v>189</v>
       </c>
@@ -10291,7 +10291,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
       <c r="P114" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q114" s="14"/>
@@ -10305,14 +10305,14 @@
       <c r="Y114" s="14"/>
       <c r="Z114" s="14"/>
       <c r="AA114" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB114" s="14"/>
       <c r="AC114" s="14"/>
       <c r="AD114" s="14"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30">
       <c r="A115" s="14" t="s">
         <v>190</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q115" s="14"/>
@@ -10345,7 +10345,7 @@
       <c r="Y115" s="14"/>
       <c r="Z115" s="14"/>
       <c r="AA115" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB115" s="14"/>
@@ -10354,7 +10354,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -10371,7 +10371,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
       <c r="P116" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q116" s="14"/>
@@ -10385,14 +10385,14 @@
       <c r="Y116" s="14"/>
       <c r="Z116" s="14"/>
       <c r="AA116" s="14">
-        <f t="shared" ref="AA116:AA155" si="2">W116+X116+Y116+Z116</f>
+        <f t="shared" ref="AA116:AA155" si="8">W116+X116+Y116+Z116</f>
         <v>0</v>
       </c>
       <c r="AB116" s="14"/>
       <c r="AC116" s="14"/>
       <c r="AD116" s="14"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30">
       <c r="A117" s="14" t="s">
         <v>311</v>
       </c>
@@ -10411,7 +10411,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
       <c r="P117" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q117" s="14"/>
@@ -10425,14 +10425,14 @@
       <c r="Y117" s="14"/>
       <c r="Z117" s="14"/>
       <c r="AA117" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB117" s="14"/>
       <c r="AC117" s="14"/>
       <c r="AD117" s="14"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30">
       <c r="A118" s="14" t="s">
         <v>312</v>
       </c>
@@ -10451,7 +10451,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="14"/>
       <c r="P118" s="14">
-        <f t="shared" ref="P118:P155" si="3">L118+M118+N118</f>
+        <f t="shared" ref="P118:P155" si="9">L118+M118+N118</f>
         <v>0</v>
       </c>
       <c r="Q118" s="14"/>
@@ -10465,14 +10465,14 @@
       <c r="Y118" s="14"/>
       <c r="Z118" s="14"/>
       <c r="AA118" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB118" s="14"/>
       <c r="AC118" s="14"/>
       <c r="AD118" s="14"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30">
       <c r="A119" s="14" t="s">
         <v>237</v>
       </c>
@@ -10491,7 +10491,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
       <c r="P119" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q119" s="14"/>
@@ -10505,7 +10505,7 @@
       <c r="Y119" s="14"/>
       <c r="Z119" s="14"/>
       <c r="AA119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB119" s="14"/>
@@ -10514,7 +10514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30">
       <c r="A120" s="14" t="s">
         <v>249</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="14"/>
       <c r="P120" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q120" s="14"/>
@@ -10547,7 +10547,7 @@
       <c r="Y120" s="14"/>
       <c r="Z120" s="14"/>
       <c r="AA120" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB120" s="14"/>
@@ -10556,7 +10556,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30">
       <c r="A121" s="14" t="s">
         <v>241</v>
       </c>
@@ -10575,7 +10575,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="14"/>
       <c r="P121" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q121" s="14"/>
@@ -10589,7 +10589,7 @@
       <c r="Y121" s="14"/>
       <c r="Z121" s="14"/>
       <c r="AA121" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB121" s="14"/>
@@ -10598,7 +10598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30">
       <c r="A122" s="14" t="s">
         <v>243</v>
       </c>
@@ -10617,7 +10617,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
       <c r="P122" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q122" s="14"/>
@@ -10631,7 +10631,7 @@
       <c r="Y122" s="14"/>
       <c r="Z122" s="14"/>
       <c r="AA122" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB122" s="14"/>
@@ -10640,7 +10640,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30">
       <c r="A123" s="14" t="s">
         <v>242</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="14"/>
       <c r="P123" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q123" s="14"/>
@@ -10673,7 +10673,7 @@
       <c r="Y123" s="14"/>
       <c r="Z123" s="14"/>
       <c r="AA123" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB123" s="14"/>
@@ -10682,7 +10682,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30">
       <c r="A124" s="14" t="s">
         <v>245</v>
       </c>
@@ -10701,7 +10701,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q124" s="14"/>
@@ -10715,7 +10715,7 @@
       <c r="Y124" s="14"/>
       <c r="Z124" s="14"/>
       <c r="AA124" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB124" s="14"/>
@@ -10724,7 +10724,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30">
       <c r="A125" s="14" t="s">
         <v>244</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q125" s="14"/>
@@ -10757,7 +10757,7 @@
       <c r="Y125" s="14"/>
       <c r="Z125" s="14"/>
       <c r="AA125" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB125" s="14"/>
@@ -10766,7 +10766,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30">
       <c r="A126" s="14" t="s">
         <v>252</v>
       </c>
@@ -10785,7 +10785,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
       <c r="P126" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q126" s="14"/>
@@ -10799,7 +10799,7 @@
       <c r="Y126" s="14"/>
       <c r="Z126" s="14"/>
       <c r="AA126" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB126" s="14"/>
@@ -10808,7 +10808,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30">
       <c r="A127" s="14" t="s">
         <v>254</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="14"/>
       <c r="P127" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q127" s="14"/>
@@ -10841,7 +10841,7 @@
       <c r="Y127" s="14"/>
       <c r="Z127" s="14"/>
       <c r="AA127" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB127" s="14"/>
@@ -10850,7 +10850,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30">
       <c r="A128" s="14" t="s">
         <v>255</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
       <c r="P128" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q128" s="14"/>
@@ -10883,7 +10883,7 @@
       <c r="Y128" s="14"/>
       <c r="Z128" s="14"/>
       <c r="AA128" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB128" s="14"/>
@@ -10892,7 +10892,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30">
       <c r="A129" s="14" t="s">
         <v>256</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
       <c r="P129" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q129" s="14"/>
@@ -10925,7 +10925,7 @@
       <c r="Y129" s="14"/>
       <c r="Z129" s="14"/>
       <c r="AA129" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB129" s="14"/>
@@ -10934,7 +10934,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -10951,7 +10951,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
       <c r="P130" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q130" s="14"/>
@@ -10965,14 +10965,14 @@
       <c r="Y130" s="14"/>
       <c r="Z130" s="14"/>
       <c r="AA130" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB130" s="14"/>
       <c r="AC130" s="14"/>
       <c r="AD130" s="14"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30">
       <c r="A131" s="14" t="s">
         <v>263</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
       <c r="P131" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q131" s="14"/>
@@ -11005,7 +11005,7 @@
       <c r="Y131" s="14"/>
       <c r="Z131" s="14"/>
       <c r="AA131" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB131" s="14"/>
@@ -11014,7 +11014,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30">
       <c r="A132" s="14" t="s">
         <v>265</v>
       </c>
@@ -11033,7 +11033,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q132" s="14"/>
@@ -11047,7 +11047,7 @@
       <c r="Y132" s="14"/>
       <c r="Z132" s="14"/>
       <c r="AA132" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB132" s="14"/>
@@ -11056,7 +11056,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30">
       <c r="A133" s="14" t="s">
         <v>267</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
       <c r="P133" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q133" s="14"/>
@@ -11089,7 +11089,7 @@
       <c r="Y133" s="14"/>
       <c r="Z133" s="14"/>
       <c r="AA133" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB133" s="14"/>
@@ -11098,7 +11098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -11115,7 +11115,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q134" s="14"/>
@@ -11129,14 +11129,14 @@
       <c r="Y134" s="14"/>
       <c r="Z134" s="14"/>
       <c r="AA134" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB134" s="14"/>
       <c r="AC134" s="14"/>
       <c r="AD134" s="14"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -11153,7 +11153,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
       <c r="P135" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q135" s="14"/>
@@ -11167,14 +11167,14 @@
       <c r="Y135" s="14"/>
       <c r="Z135" s="14"/>
       <c r="AA135" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB135" s="14"/>
       <c r="AC135" s="14"/>
       <c r="AD135" s="14"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30">
       <c r="A136" s="14" t="s">
         <v>271</v>
       </c>
@@ -11193,7 +11193,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
       <c r="P136" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q136" s="14"/>
@@ -11207,7 +11207,7 @@
       <c r="Y136" s="14"/>
       <c r="Z136" s="14"/>
       <c r="AA136" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB136" s="14"/>
@@ -11216,7 +11216,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30">
       <c r="A137" s="14" t="s">
         <v>273</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
       <c r="P137" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q137" s="14"/>
@@ -11249,7 +11249,7 @@
       <c r="Y137" s="14"/>
       <c r="Z137" s="14"/>
       <c r="AA137" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB137" s="14"/>
@@ -11258,7 +11258,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30">
       <c r="A138" s="14" t="s">
         <v>278</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
       <c r="P138" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q138" s="14"/>
@@ -11291,14 +11291,14 @@
       <c r="Y138" s="14"/>
       <c r="Z138" s="14"/>
       <c r="AA138" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB138" s="14"/>
       <c r="AC138" s="14"/>
       <c r="AD138" s="14"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -11315,7 +11315,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
       <c r="P139" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q139" s="14"/>
@@ -11329,14 +11329,14 @@
       <c r="Y139" s="14"/>
       <c r="Z139" s="14"/>
       <c r="AA139" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB139" s="14"/>
       <c r="AC139" s="14"/>
       <c r="AD139" s="14"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -11353,7 +11353,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
       <c r="P140" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q140" s="14"/>
@@ -11367,14 +11367,14 @@
       <c r="Y140" s="14"/>
       <c r="Z140" s="14"/>
       <c r="AA140" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB140" s="14"/>
       <c r="AC140" s="14"/>
       <c r="AD140" s="14"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30">
       <c r="A141" s="14" t="s">
         <v>286</v>
       </c>
@@ -11393,7 +11393,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="14"/>
       <c r="P141" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q141" s="14"/>
@@ -11407,7 +11407,7 @@
       <c r="Y141" s="14"/>
       <c r="Z141" s="14"/>
       <c r="AA141" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB141" s="14"/>
@@ -11416,7 +11416,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30">
       <c r="A142" s="14" t="s">
         <v>284</v>
       </c>
@@ -11435,7 +11435,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
       <c r="P142" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q142" s="14"/>
@@ -11449,14 +11449,14 @@
       <c r="Y142" s="14"/>
       <c r="Z142" s="14"/>
       <c r="AA142" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB142" s="14"/>
       <c r="AC142" s="14"/>
       <c r="AD142" s="14"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30">
       <c r="A143" s="14" t="s">
         <v>285</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
       <c r="P143" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q143" s="14"/>
@@ -11489,14 +11489,14 @@
       <c r="Y143" s="14"/>
       <c r="Z143" s="14"/>
       <c r="AA143" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB143" s="14"/>
       <c r="AC143" s="14"/>
       <c r="AD143" s="14"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30">
       <c r="A144" s="14" t="s">
         <v>287</v>
       </c>
@@ -11515,7 +11515,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="14"/>
       <c r="P144" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q144" s="14"/>
@@ -11529,7 +11529,7 @@
       <c r="Y144" s="14"/>
       <c r="Z144" s="14"/>
       <c r="AA144" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB144" s="14"/>
@@ -11538,7 +11538,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -11555,7 +11555,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="14"/>
       <c r="P145" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q145" s="14"/>
@@ -11569,14 +11569,14 @@
       <c r="Y145" s="14"/>
       <c r="Z145" s="14"/>
       <c r="AA145" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB145" s="14"/>
       <c r="AC145" s="14"/>
       <c r="AD145" s="14"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -11593,7 +11593,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
       <c r="P146" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q146" s="14"/>
@@ -11607,14 +11607,14 @@
       <c r="Y146" s="14"/>
       <c r="Z146" s="14"/>
       <c r="AA146" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB146" s="14"/>
       <c r="AC146" s="14"/>
       <c r="AD146" s="14"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30">
       <c r="A147" s="14" t="s">
         <v>306</v>
       </c>
@@ -11633,7 +11633,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
       <c r="P147" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q147" s="14"/>
@@ -11647,14 +11647,14 @@
       <c r="Y147" s="14"/>
       <c r="Z147" s="14"/>
       <c r="AA147" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB147" s="14"/>
       <c r="AC147" s="14"/>
       <c r="AD147" s="14"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30">
       <c r="A148" s="14" t="s">
         <v>307</v>
       </c>
@@ -11673,7 +11673,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="14"/>
       <c r="P148" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q148" s="14"/>
@@ -11687,14 +11687,14 @@
       <c r="Y148" s="14"/>
       <c r="Z148" s="14"/>
       <c r="AA148" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB148" s="14"/>
       <c r="AC148" s="14"/>
       <c r="AD148" s="14"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30">
       <c r="A149" s="14" t="s">
         <v>308</v>
       </c>
@@ -11713,7 +11713,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
       <c r="P149" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q149" s="14"/>
@@ -11727,14 +11727,14 @@
       <c r="Y149" s="14"/>
       <c r="Z149" s="14"/>
       <c r="AA149" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB149" s="14"/>
       <c r="AC149" s="14"/>
       <c r="AD149" s="14"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30">
       <c r="A150" s="14" t="s">
         <v>309</v>
       </c>
@@ -11753,7 +11753,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="14"/>
       <c r="P150" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q150" s="14"/>
@@ -11767,14 +11767,14 @@
       <c r="Y150" s="14"/>
       <c r="Z150" s="14"/>
       <c r="AA150" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB150" s="14"/>
       <c r="AC150" s="14"/>
       <c r="AD150" s="14"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30">
       <c r="A151" s="14" t="s">
         <v>310</v>
       </c>
@@ -11793,7 +11793,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="14"/>
       <c r="P151" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q151" s="14"/>
@@ -11807,14 +11807,14 @@
       <c r="Y151" s="14"/>
       <c r="Z151" s="14"/>
       <c r="AA151" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB151" s="14"/>
       <c r="AC151" s="14"/>
       <c r="AD151" s="14"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30">
       <c r="A152" s="14" t="s">
         <v>192</v>
       </c>
@@ -11833,7 +11833,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="14"/>
       <c r="P152" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q152" s="14"/>
@@ -11847,14 +11847,14 @@
       <c r="Y152" s="14"/>
       <c r="Z152" s="14"/>
       <c r="AA152" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB152" s="14"/>
       <c r="AC152" s="14"/>
       <c r="AD152" s="14"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30">
       <c r="A153" s="14" t="s">
         <v>193</v>
       </c>
@@ -11873,7 +11873,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="14"/>
       <c r="P153" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q153" s="14"/>
@@ -11887,14 +11887,14 @@
       <c r="Y153" s="14"/>
       <c r="Z153" s="14"/>
       <c r="AA153" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB153" s="14"/>
       <c r="AC153" s="14"/>
       <c r="AD153" s="14"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30">
       <c r="A154" s="14" t="s">
         <v>313</v>
       </c>
@@ -11913,7 +11913,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="14"/>
       <c r="P154" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q154" s="14"/>
@@ -11927,14 +11927,14 @@
       <c r="Y154" s="14"/>
       <c r="Z154" s="14"/>
       <c r="AA154" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB154" s="14"/>
       <c r="AC154" s="14"/>
       <c r="AD154" s="14"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30">
       <c r="A155" s="14" t="s">
         <v>315</v>
       </c>
@@ -11953,7 +11953,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="14"/>
       <c r="P155" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q155" s="14"/>
@@ -11967,7 +11967,7 @@
       <c r="Y155" s="14"/>
       <c r="Z155" s="14"/>
       <c r="AA155" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB155" s="14"/>
@@ -11980,6 +11980,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11989,7 +11990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12004,93 +12005,93 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>206</v>
       </c>
@@ -12098,82 +12099,82 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
         <v>228</v>
       </c>
@@ -12192,20 +12193,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="33.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>232</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>234</v>
       </c>
@@ -12224,22 +12225,22 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>230</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>276</v>
       </c>
@@ -12255,7 +12256,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>279</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>281</v>
       </c>
@@ -12283,7 +12284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12298,14 +12299,14 @@
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
@@ -12313,72 +12314,72 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="B130" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="13" t="s">
         <v>304</v>
       </c>

--- a/document/各项参数表.xlsx
+++ b/document/各项参数表.xlsx
@@ -2436,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3627,8 +3627,8 @@
   <sheetPr/>
   <dimension ref="A1:AH180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -14475,7 +14475,7 @@
   <sheetPr/>
   <dimension ref="A2:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -14774,7 +14774,7 @@
   <sheetPr/>
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
